--- a/sql/DJTimetable.xlsx
+++ b/sql/DJTimetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865AEE7E-625E-4F95-8D0F-717DC5AACDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819879DD-BD29-4531-A025-C61771572F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{5E463799-230E-4E29-AB9E-A3D778FCE21A}"/>
   </bookViews>
@@ -137,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +168,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color theme="6" tint="0.80001220740379042"/>
+        </stop>
+        <stop position="1">
+          <color theme="3" tint="0.74901577806939912"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -196,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,16 +226,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,8 +580,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -577,14 +590,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
@@ -613,16 +626,16 @@
       <c r="B3" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -633,10 +646,10 @@
       <c r="B4" s="1">
         <v>0.75</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -645,10 +658,10 @@
       <c r="B5" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
@@ -671,10 +684,10 @@
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -691,8 +704,8 @@
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -707,8 +720,8 @@
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -723,10 +736,10 @@
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -735,24 +748,24 @@
       <c r="B11" s="1">
         <v>1.125</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
@@ -781,16 +794,16 @@
       <c r="B15" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -801,10 +814,10 @@
       <c r="B16" s="1">
         <v>0.75</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
@@ -813,10 +826,10 @@
       <c r="B17" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
@@ -834,15 +847,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -859,8 +872,8 @@
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -875,8 +888,8 @@
       <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -891,10 +904,10 @@
       <c r="D22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="E22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
@@ -903,24 +916,24 @@
       <c r="B23" s="1">
         <v>1.125</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
+      <c r="C23" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
@@ -949,16 +962,16 @@
       <c r="B27" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="C27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -969,10 +982,10 @@
       <c r="B28" s="1">
         <v>0.75</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -981,10 +994,10 @@
       <c r="B29" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
@@ -1007,10 +1020,10 @@
       <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1022,13 +1035,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
@@ -1043,8 +1056,8 @@
       <c r="D33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -1059,10 +1072,10 @@
       <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="10"/>
+      <c r="E34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -1071,24 +1084,24 @@
       <c r="B35" s="1">
         <v>1.125</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>10</v>
+      <c r="C35" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
@@ -1117,16 +1130,16 @@
       <c r="B39" s="1">
         <v>0.625</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="C39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1137,10 +1150,10 @@
       <c r="B40" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -1149,10 +1162,10 @@
       <c r="B41" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -1161,10 +1174,10 @@
       <c r="B42" s="1">
         <v>0.75</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
@@ -1173,10 +1186,10 @@
       <c r="B43" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -1185,10 +1198,10 @@
       <c r="B44" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
@@ -1206,15 +1219,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1231,8 +1244,8 @@
       <c r="D47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -1242,13 +1255,13 @@
         <v>1.0416666666666701</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -1263,10 +1276,10 @@
       <c r="D49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="10"/>
+      <c r="E49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -1275,22 +1288,33 @@
       <c r="B50" s="1">
         <v>1.125</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>14</v>
+      <c r="C50" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="E46:E48"/>
     <mergeCell ref="F46:F50"/>
     <mergeCell ref="E49:E50"/>
@@ -1302,22 +1326,11 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F35"/>
     <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sql/DJTimetable.xlsx
+++ b/sql/DJTimetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierreuk/Repo/BOSMAJ24/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819879DD-BD29-4531-A025-C61771572F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E726F9-DB37-5A43-A49E-E2EB6C7CDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{5E463799-230E-4E29-AB9E-A3D778FCE21A}"/>
+    <workbookView xWindow="-36340" yWindow="1840" windowWidth="29000" windowHeight="15940" xr2:uid="{5E463799-230E-4E29-AB9E-A3D778FCE21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
   <si>
     <t>SATURDAY</t>
   </si>
@@ -179,7 +179,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -202,11 +202,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,19 +252,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,26 +612,23 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="6" width="15.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -619,51 +648,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="B3" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.70833333333333337</v>
       </c>
       <c r="B4" s="1">
         <v>0.75</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
       <c r="B5" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -671,7 +700,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -684,14 +713,14 @@
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F7" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.95833333333333304</v>
       </c>
@@ -704,10 +733,10 @@
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -717,13 +746,13 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1.0416666666666701</v>
       </c>
@@ -733,41 +762,39 @@
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="13"/>
+      <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1.0833333333333299</v>
       </c>
       <c r="B11" s="1">
         <v>1.125</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -787,51 +814,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="B15" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.70833333333333337</v>
       </c>
       <c r="B16" s="1">
         <v>0.75</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.75</v>
       </c>
       <c r="B17" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -839,7 +866,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -852,14 +879,14 @@
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F19" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.95833333333333304</v>
       </c>
@@ -872,10 +899,10 @@
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -888,10 +915,10 @@
       <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1.0416666666666701</v>
       </c>
@@ -904,38 +931,38 @@
       <c r="D22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1.0833333333333299</v>
       </c>
       <c r="B23" s="1">
         <v>1.125</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
@@ -955,51 +982,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="B27" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.70833333333333337</v>
       </c>
       <c r="B28" s="1">
         <v>0.75</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.75</v>
       </c>
       <c r="B29" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1007,7 +1034,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -1020,14 +1047,14 @@
       <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F31" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.95833333333333304</v>
       </c>
@@ -1040,10 +1067,10 @@
       <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1056,10 +1083,10 @@
       <c r="D33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1.0416666666666701</v>
       </c>
@@ -1072,38 +1099,38 @@
       <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1.0833333333333299</v>
       </c>
       <c r="B35" s="1">
         <v>1.125</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="7" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>1</v>
       </c>
@@ -1123,87 +1150,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="B39" s="1">
         <v>0.625</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="C39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.625</v>
       </c>
       <c r="B40" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.66666666666666696</v>
       </c>
       <c r="B41" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.70833333333333304</v>
       </c>
       <c r="B42" s="1">
         <v>0.75</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.75</v>
       </c>
       <c r="B43" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.79166666666666596</v>
       </c>
       <c r="B44" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1211,7 +1238,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -1224,14 +1251,14 @@
       <c r="D46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F46" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0.95833333333333304</v>
       </c>
@@ -1244,10 +1271,10 @@
       <c r="D47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -1260,10 +1287,10 @@
       <c r="D48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1.0416666666666701</v>
       </c>
@@ -1276,29 +1303,46 @@
       <c r="D49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1.0833333333333299</v>
       </c>
       <c r="B50" s="1">
         <v>1.125</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="F19:F23"/>
     <mergeCell ref="E22:E23"/>
@@ -1315,25 +1359,9 @@
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>

--- a/sql/DJTimetable.xlsx
+++ b/sql/DJTimetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierreuk/Repo/BOSMAJ24/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E726F9-DB37-5A43-A49E-E2EB6C7CDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7FFD33-80AF-9A46-AFF4-1F357541EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36340" yWindow="1840" windowWidth="29000" windowHeight="15940" xr2:uid="{5E463799-230E-4E29-AB9E-A3D778FCE21A}"/>
+    <workbookView xWindow="2060" yWindow="1840" windowWidth="29000" windowHeight="15940" xr2:uid="{5E463799-230E-4E29-AB9E-A3D778FCE21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
   <si>
     <t>SATURDAY</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>DANI K</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,37 +205,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,12 +243,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +584,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,7 +717,7 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="8"/>
@@ -762,7 +733,9 @@
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1325,23 +1298,8 @@
       <c r="F50" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
+  <mergeCells count="32">
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="F39:F44"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="F19:F23"/>
@@ -1358,7 +1316,21 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
